--- a/src/CruiseBundle/Resources/report/report_agent_act.xlsx
+++ b/src/CruiseBundle/Resources/report/report_agent_act.xlsx
@@ -51,13 +51,13 @@
     <t>ООО "Речное Агентство", ИНН 9710008811, 109012 г Москва, ул Никольская, д 4/5, офис 403, тел.: +7 (495)649-83-71, р/с 40702810838000101330, в банке ПАО СБЕРБАНК, БИК 044525225, к/с 30101810400000000225</t>
   </si>
   <si>
-    <t>Генеральный директор______________________________________</t>
-  </si>
-  <si>
     <t>Подписанием настоящего Акта оказанных услуг Стороны подтверждают отсутствие каких-либо претензий по исполнению Агентского договора.</t>
   </si>
   <si>
     <t>Настоящий акт является основанием для проведения взаимных расчетов и платежей между Агентом и Компанией.</t>
+  </si>
+  <si>
+    <t>Генеральный директор Гладилина Л.В.</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:L12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
     <row r="10" spans="1:12" s="6" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -850,7 +850,7 @@
     <row r="12" spans="1:12" s="6" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1012,7 +1012,7 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="E26" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>

--- a/src/CruiseBundle/Resources/report/report_agent_act.xlsx
+++ b/src/CruiseBundle/Resources/report/report_agent_act.xlsx
@@ -48,9 +48,6 @@
     <t>М.П.</t>
   </si>
   <si>
-    <t>ООО "Речное Агентство", ИНН 9710008811, 109012 г Москва, ул Никольская, д 4/5, офис 403, тел.: +7 (495)649-83-71, р/с 40702810838000101330, в банке ПАО СБЕРБАНК, БИК 044525225, к/с 30101810400000000225</t>
-  </si>
-  <si>
     <t>Подписанием настоящего Акта оказанных услуг Стороны подтверждают отсутствие каких-либо претензий по исполнению Агентского договора.</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Генеральный директор Гладилина Л.В.</t>
+  </si>
+  <si>
+    <t>ООО "Речное Агентство", ИНН 9710008811, 109012 г Москва, ул Никольская, д 4/5, офис 11, тел.: +7 (495)649-83-71, р/с 40702810838000101330, в банке ПАО СБЕРБАНК, БИК 044525225, к/с 30101810400000000225</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
     <row r="10" spans="1:12" s="6" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -850,7 +850,7 @@
     <row r="12" spans="1:12" s="6" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -910,7 +910,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -1012,7 +1012,7 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="E26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
